--- a/timetable/Book1.xlsx
+++ b/timetable/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="11171"/>
+    <workbookView windowWidth="23040" windowHeight="10464"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -680,8 +680,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1220,205 +1223,221 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <cols>
+    <col min="4" max="4" width="10.7777777777778"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="0">
-        <v>0</v>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(B2/C2)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D3" s="0">
-        <v>0</v>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D14" si="0">B3/C3</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0">
-        <v>0</v>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0">
-        <v>0</v>
-      </c>
-      <c r="C5" s="0">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0">
-        <v>0</v>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D6" s="0">
-        <v>0</v>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.909090909090909</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="0">
-        <v>0</v>
-      </c>
-      <c r="C7" s="0">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0">
-        <v>0</v>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="0">
-        <v>0</v>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="0">
-        <v>0</v>
-      </c>
-      <c r="C9" s="0">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0">
-        <v>0</v>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D10" s="0">
-        <v>0</v>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.857142857142857</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s" s="0">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D11" s="0">
-        <v>0</v>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s" s="0">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="0">
-        <v>0</v>
-      </c>
-      <c r="C12" s="0">
-        <v>0</v>
-      </c>
-      <c r="D12" s="0">
-        <v>0</v>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s" s="0">
+      <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="0">
-        <v>0</v>
-      </c>
-      <c r="C13" s="0">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0">
-        <v>0</v>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s" s="0">
+      <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="0">
+      <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" s="0">
+      <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" s="0">
-        <v>0</v>
+      <c r="D14" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/timetable/Book1.xlsx
+++ b/timetable/Book1.xlsx
@@ -1232,27 +1232,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0">
         <v>10</v>
       </c>
       <c r="D2" s="1">
@@ -1261,13 +1261,13 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="0">
         <v>4</v>
       </c>
       <c r="D3" s="1">
@@ -1276,14 +1276,14 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+      <c r="B4" s="0" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3.0</v>
       </c>
       <c r="D4" s="1">
         <f t="shared" si="0"/>
@@ -1291,13 +1291,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="0">
         <v>4</v>
       </c>
       <c r="D5" s="1">
@@ -1306,13 +1306,13 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="0">
         <v>11</v>
       </c>
       <c r="D6" s="1">
@@ -1321,13 +1321,13 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="0">
         <v>3</v>
       </c>
       <c r="D7" s="1">
@@ -1336,13 +1336,13 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="0">
         <v>9</v>
       </c>
       <c r="D8" s="1">
@@ -1351,14 +1351,14 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="B9" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>3.0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
@@ -1366,13 +1366,13 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="0">
         <v>7</v>
       </c>
       <c r="D10" s="1">
@@ -1381,13 +1381,13 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="0">
         <v>3</v>
       </c>
       <c r="D11" s="1">
@@ -1396,13 +1396,13 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="0">
         <v>5</v>
       </c>
       <c r="D12" s="1">
@@ -1411,13 +1411,13 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0">
         <v>2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="0">
         <v>3</v>
       </c>
       <c r="D13" s="1">
@@ -1426,13 +1426,13 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0">
         <v>0</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="0">
         <v>0</v>
       </c>
       <c r="D14" s="1" t="e">
